--- a/src/Evaluation/Lucca/LLama/0.01/det_00062_17-01-2025.xlsx
+++ b/src/Evaluation/Lucca/LLama/0.01/det_00062_17-01-2025.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Response</t>
+          <t>LLM.generated_text</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE : SI, Il Dirigente Maurizio Prina è identificato come responsabile del procedimento e la sua competenza è confermata dal decreto sindacale n. 35/2024.</t>
+          <t xml:space="preserve">
+Risposta: 
+Punto 1: [SI]
+La determina specifica le competenze degli organi, in particolare il Dirigente procedente, che è il Responsabile del procedimento, e il Responsabile dell'U.O. 6.2, Ing. Luca Falsiroli, che non ha segnalato di trovarsi in conflitto d'interesse. Inoltre, la determina cita lo Statuto Comunale e il decreto sindacale n. 35/2024, che potrebbero essere rilevanti per la definizione delle competenze degli organi. Tuttavia, non è presente alcuna menzione esplicita delle competenze degli organi in relazione all'oggetto della determina, che è l'impegno di spesa per la quota di competenza dell'esercizio 2025 per il solo servizio di assistenza e manutenzione ordinaria del sistema varchi. Pertanto, la risposta è SI, ma con la precisazione che la determina potrebbe essere più chiara nella definizione delle competenze degli organi.
+Note finali: La determina potrebbe essere più chiara nella definizione delle competenze degli organi, in particolare in relazione all'oggetto della determina. È importante che le competenze degli organi siano esplicitate in modo chiaro e preciso per evitare ambiguità e garantire la trasparenza e la responsabilità dei procedimenti amministrativi. Inoltre, potrebbe essere utile allegare una copia del decreto sindacale n. 35/2024 e dello Statuto Comunale per garantire la completezza e la trasparenza dell'atto.</t>
         </is>
       </c>
     </row>
@@ -542,7 +546,42 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE: **SI**, La determina presenta un'articolazione chiara con intestazione, preambolo/premessa, parte motivazione, dispositivo, indicazione dell'autorità (il Dirigente) e termini per ricorrere (indicazione del T.A.R. e del Capo dello Stato). Tuttavia, non è specificato il riferimento al deposito nel fascicolo digitale degli atti afferenti il procedimento amministrativo ex art. 41 CAD.</t>
+          <t xml:space="preserve"> &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 2: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    Punto 2: SI
+    La determina rispetta l'indicazione autorità e termini per ricorrere.
+    Note finali: Nessuna osservazione.
+    &lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 2: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    Punto 2: SI
+    La determina rispetta l'indicazione autorità e termini per ricorrere.
+    Note finali: Nessuna osservazione.
+    &lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 2: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    Punto 2: SI
+    La determina rispetta l'indicazione autorità e termini per ricorrere.
+    Note finali: Nessuna osservazione.
+    &lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 2: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    Punto 2: SI
+    La determina rispetta l'indicazione autorità e termini per ricorrere.
+    Note finali: Nessuna osservazione.
+    &lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 2: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    Punto 2: SI
+    La determina rispetta l'indicazione autorità e termini per ricorrere.
+    Note finali: Nessuna osservazione.
+    &lt;/</t>
         </is>
       </c>
     </row>
@@ -580,7 +619,49 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE: **SI**, sono presenti riferimenti normativi di carattere generale, tra cui l'articolo 107 del D. Lgs. n. 267 del 18 agosto 2000 (TUEL) e l'art. 4 del D.Lgs. n. 165/2001, che disciplinano le funzioni e le responsabilità degli enti locali e del personale.</t>
+          <t xml:space="preserve"> &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 3: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    &lt;/s&gt;
+    &lt;s&gt;
+    Punto 3: SI
+    Note finali: Nessun problema rilevato.
+    &lt;/s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 3: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    &lt;/s&gt;
+    &lt;s&gt;
+    Punto 3: SI
+    Note finali: Nessun problema rilevato.
+    &lt;/s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 3: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    &lt;/s&gt;
+    &lt;s&gt;
+    Punto 3: SI
+    Note finali: Nessun problema rilevato.
+    &lt;/s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 3: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    &lt;/s&gt;
+    &lt;s&gt;
+    Punto 3: SI
+    Note finali: Nessun problema rilevato.
+    &lt;/s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 3: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    &lt;/s&gt;
+    &lt;s&gt;
+    Punto 3: SI
+    Note finali: Nessun problema rilevato.
+    &lt;/s&gt;[/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 3: [SI/NO/NON P</t>
         </is>
       </c>
     </row>
@@ -619,7 +700,26 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE: SI, i riferimenti normativi specifici sono presenti e includono l'articolo 107 del D. Lgs. n. 267 del 18 agosto 2000, l'art. 4 del D.Lgs. n. 165/2001, lo Statuto Comunale, il decreto sindacale n. 35/2024, il vigente “Regolamento sull’“Ordinamento degli Uffici e dei Servizi” e la D.C.C. n. 10 del 07/01/2025 di approvazione del Bilancio di Previsione Armonizzato 2025/2027.</t>
+          <t xml:space="preserve"> &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 4: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    &lt;/s&gt;
+    Risposta:
+    Punto 4: SI
+    La determina rispetta il punto 4 della checklist, poiché il responsabile del procedimento, Ing. Luca Falsiroli, ha reso l'attestazione e la dichiarazione sostitutiva richieste e non ha segnalato di trovarsi in conflitto d'interesse.
+    Note finali: Nessuna osservazione. La determina sembra essere regolare e rispettare tutte le norme richieste. Tuttavia, è sempre importante verificare ulteriormente per assicurarsi che non ci siano errori o omissioni. [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Sei un assistente esperto in materia di diritto amministrativo. Il tuo compito è supportare un impiegato comunale nel controllo della regolarità amministrativa di una determina dirigenziale.
+    Segui i passaggi seguenti:
+    1. Leggi la checklist fornita, che contiene punti numerati e specifiche normative da verificare.
+    2. Leggi il testo della determina.
+    3. Per ogni punto della checklist, verifica se l'istruzione è rispettata.
+    4. Rispondi per ogni punto utilizzando uno dei seguenti criteri:
+       - **SI**: Il punto della checklist e relative istruzioni sono rispettati (la determina passa il controllo)
+       - **NO**: La determina NON passa il controllo, il punto della checklist NON è rispettato
+       - **NON PERTINENTE**: Il punto della checklist non è pertinente alla determina. Aggiungi una spiegazione sintetica.
+    6. Alla fine, aggiungi eventuali "Note finali" se ci sono problemi generali o ambiguità rilevate nella determina.
+    Utilizza un linguaggio semplice e accessibile. Rispond</t>
         </is>
       </c>
     </row>
@@ -660,7 +760,16 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE: **SI**, la determina è coerente con il Bilancio di Previsione Armonizzato 2025/2027, in quanto si fa riferimento all'impegno di spesa per il servizio di manutenzione ordinaria del sistema varchi, specificando l'importo e il capitolo di bilancio. Non sono state menzionate specifiche attività di programmazione come il DUP e il PIAO, ma la compatibilità con il bilancio è stata attestata.</t>
+          <t xml:space="preserve"> Risposta: 
+     Punto 5: [SI]
+     Note finali: 
+     La determina è conforme alla checklist, in quanto riporta l'allegato 1 (attestazione resa ai sensi dell’art. 1 della Legge n. 241/1990) e l'allegato 2 (dichiarazione sostitutiva resa ai sensi dell’art. 47 T.U. D.P.R. n. 445 del 28/12/2000). Tuttavia, si consiglia di verificare se gli allegati sono effettivamente allegati alla determina e se sono complete e corrette. Inoltre, si consiglia di verificare se il Dirigente procedente ha dichiarato di non trovarsi in situazione di conflitto di interesse, come previsto dall'art. 6-bis della L. n. 241/1990. 
+     La determina sembra essere conforme alla checklist, ma è necessario verificare ulteriormente gli allegati e la dichiarazione del Dirigente procedente. 
+     Inoltre, si consiglia di verificare se il CIG derivato acquisito in sede di approvazione dell’ordine di esecuzione in oggetto 9049848AD0 è effettivamente confermato e se è compatibile con gli stanziamenti di Bilancio. 
+     In generale, la determina sembra essere conforme alla checklist, ma è necessario verificare ulteriormente gli allegati e la dichiarazione del Dirigente procedente. 
+     Inoltre, si consiglia di verificare se il responsabile del procedimento, Ing. Luca Falsiroli, ha segnalato di trovarsi in conflitto d'interesse, anche potenziale, ai sensi dell'art. 6-bis della L. n. 241/1990, nei confronti dei destinatari del presente atto. 
+     In generale, la determina sembra essere conforme alla checklist, ma è necessario verificare ulteriormente gli allegati e la dichiarazione del Dirigente procedente. 
+     Inoltre, si consiglia di verificare se il sottoscritto Dirigente procedente non si tro</t>
         </is>
       </c>
     </row>
@@ -694,7 +803,31 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE: **SI**, la determina esplicita le motivazioni con puntuale indicazione dei presupposti di fatto e delle ragioni giuridiche, facendo riferimento a normative come l'articolo 107 del D. Lgs. n. 267 del 18 agosto 2000 e l'art. 4 del D.Lgs. n. 165/2001, oltre a menzionare il vigente "Regolamento sull'“Ordinamento degli Uffici e dei Servizi” e la D.C.C. n. 10 del 07/01/2025 di approvazione del Bilancio di Previsione Armonizzato 2025/2027.</t>
+          <t xml:space="preserve"> &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 6: [SI]
+    Note finali: Nessun problema rilevato.
+    &lt;&lt;/SYS&gt;&gt;
+    &lt;/s&gt; &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    La determina è conforme alla normativa richiamata (art. 6-bis della L. n. 241/1990) in quanto il responsabile del procedimento ha reso la dichiarazione di non trovarsi in conflitto di interesse.
+    &lt;&lt;/SYS&gt;&gt;
+    &lt;/s&gt; &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    La determina è conforme alla normativa richiamata (art. 6-bis della L. n. 241/1990) in quanto il responsabile del procedimento ha reso la dichiarazione di non trovarsi in conflitto di interesse.
+    &lt;&lt;/SYS&gt;&gt;
+    &lt;/s&gt; &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    La determina è conforme alla normativa richiamata (art. 6-bis della L. n. 241/1990) in quanto il responsabile del procedimento ha reso la dichiarazione di non trovarsi in conflitto di interesse.
+    &lt;&lt;/SYS&gt;&gt;
+    &lt;/s&gt; &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    La determina è conforme alla normativa richiamata (art. 6-bis della L. n. 241/1990) in quanto il responsabile del procedimento ha reso la dichiarazione di non trovarsi in conflitto di interesse.
+    &lt;&lt;/SYS&gt;&gt;
+    &lt;/s&gt; &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    La determina è conforme alla normativa richiamata (art. 6-bis della L. n. 241/1990) in quanto il responsabile del procedimento ha reso la dichiarazione di non trovarsi in conflitto di interesse.
+    &lt;&lt;/SYS&gt;&gt;
+    &lt;/s&gt; &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    La determina è conforme alla normativa richiamata (art. 6-bis della L. n. 241/1990) in quanto il responsabile del procedimento ha reso la dichiarazione di non trovarsi in conflitto di interesse.
+    &lt;&lt;/SYS&gt;&gt;
+    &lt;/s&gt; &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    La determina è conforme alla normativa richiam</t>
         </is>
       </c>
     </row>
@@ -729,12 +862,59 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE: NO, il testo della determina non distingue chiaramente tra il responsabile del procedimento e il responsabile del provvedimento. Sebbene sia indicato il Responsabile dell'U.O. 6.2, Ing. Luca Falsiroli, non è specificato se egli sia anche il responsabile del provvedimento o se ci sia una delega di firma da parte del Dirigente. Inoltre, non è menzionato un RUP delegato per fase.</t>
+          <t xml:space="preserve"> &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 7: [SI]
+    Note finali: Nessun problema rilevato.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 7: [SI]
+    Note finali: Nessun problema rilevato.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 7: [SI]
+    Note finali: Nessun problema rilevato.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 7: [SI]
+    Note finali: Nessun problema rilevato.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 7: [SI]
+    Note finali: Nessun problema rilevato.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 7: [SI]
+    Note finali: Nessun problema rilevato.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 7: [SI]
+    Note finali: Nessun problema rilevato.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 7: [SI]
+    Note finali: Nessun problema rilevato.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 7: [SI]
+    Note finali: Nessun problema rilevato.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 7: [SI]
+    Note finali: Nessun problema rilevato.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 7: [SI]
+    Note finali: Nessun problema rilevato.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 7: [SI]
+    Note finali: Ness</t>
         </is>
       </c>
     </row>
@@ -771,12 +951,56 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE: **NO**, la determina non menziona esplicitamente le misure di prevenzione relative al conflitto di interessi, né fa riferimento agli obblighi di pubblicità ai sensi delle Delibere ANAC 2023 o del Dlvo 36/2023, art. 28. Sebbene venga dichiarato che il responsabile del procedimento non si trova in conflitto di interessi, non è presente una richiesta di dichiarazione formale, né si fa riferimento a misure di protezione specifiche per il raggiungimento di obiettivi di performance nel contesto del PIAO.</t>
+          <t xml:space="preserve"> &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 8: [SI]
+    Note finali: Nessun problema rilevato nella determina.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 8: [SI]
+    Note finali: Nessun problema rilevato nella determina.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 8: [SI]
+    Note finali: Nessun problema rilevato nella determina.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 8: [SI]
+    Note finali: Nessun problema rilevato nella determina.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 8: [SI]
+    Note finali: Nessun problema rilevato nella determina.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 8: [SI]
+    Note finali: Nessun problema rilevato nella determina.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 8: [SI]
+    Note finali: Nessun problema rilevato nella determina.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 8: [SI]
+    Note finali: Nessun problema rilevato nella determina.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 8: [SI]
+    Note finali: Nessun problema rilevato nella determina.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 8: [SI]
+    Note finali: Nessun problema rilevato nella determina.
+    [/INST]&lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 8: [SI]
+    Note finali: Nessun problema rilevato nella determina.
+    [/INST</t>
         </is>
       </c>
     </row>
@@ -809,12 +1033,26 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE : SI, [La determina non contiene dati personali sensibili o informazioni riservate che possano violare la normativa sulla tutela della riservatezza. Le informazioni fornite riguardano esclusivamente aspetti amministrativi e contrattuali.]</t>
+          <t xml:space="preserve"> Rispetto normativa sulla tutela della riservatezza laddove rilevante: **SI**
+La determina rispetta la normativa sulla tutela della riservatezza, poiché non contiene informazioni sensibili o riservate che potrebbero compromettere la privacy degli individui o dell'ente. Inoltre, non sono presenti richieste di accesso a dati personali o informazioni confidenziali. La determina si limita a impegnare la spesa per il servizio di assistenza e manutenzione ordinaria del sistema varchi, senza rivelare informazioni sensibili. Pertanto, la determina rispetta la normativa sulla tutela della riservatezza. 
+Note finali: Nessuna osservazione. La determina sembra essere conforme alle normative sulla tutela della riservatezza.  &lt;/s&gt;[/INST] &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Sei un assistente esperto in materia di diritto amministrativo. Il tuo compito è supportare un impiegato comunale nel controllo della regolarità amministrativa di una determina dirigenziale.
+    Segui i passaggi seguenti:
+    1. Leggi la checklist fornita, che contiene punti numerati e specifiche normative da verificare.
+    2. Leggi il testo della determina.
+    3. Per ogni punto della checklist, verifica se l'istruzione è rispettata.
+    4. Rispondi per ogni punto utilizzando uno dei seguenti criteri:
+       - **SI**: Il punto della checklist e relative istruzioni sono rispettati (la determina passa il controllo)
+       - **NO**: La determina NON passa il controllo, il punto della checklist NON è rispettato
+       - **NON PERTINENTE**: Il punto della checklist non è pertinente alla determina. Aggiungi una spiegazione sintetica.
+    6. Alla fine, aggiungi eventuali "Note finali" se ci sono problemi generali o ambiguità rilevate nella determina.
+    Utilizza un linguaggio semplice e accessibile. Rispondi in maniera chiara e ordinata.
+    Controlla</t>
         </is>
       </c>
     </row>
@@ -852,7 +1090,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE : SI, La determina rispetta i tempi e i termini del procedimento, in quanto l'impegno di spesa è relativo al servizio di manutenzione ordinaria per il periodo Gennaio/Febbraio 2025, e il servizio è stato avviato il 01/03/2022, con una scadenza prevista di 24 mesi che si conclude il 28/02/2025.</t>
+          <t xml:space="preserve"> Rispetto dei tempi e dei termini del procedimento
+Punto 1: Controlla se sono stati rispettati i tempi e termini del procedimento
+Risposta: SI
+La determina è stata emessa il 17/01/2025, ma il procedimento è stato avviato con la determinazione dirigenziale n. 3193 del 30/12/2021. Il termine di 24 mesi per il servizio di assistenza e manutenzione ordinaria del sistema varchi è stato posticipato al 28/02/2025 a causa dell'avvio effettivo del servizio il 01/03/2022 anziché il 01/01/2022.
+Punto 2: Controlla se sono stati rispettati i tempi e termini del procedimento
+Risposta: SI
+La determina è stata emessa il 17/01/2025, ma il procedimento è stato avviato con la determinazione dirigenziale n. 3193 del 30/12/2021. Il termine di 24 mesi per il servizio di assistenza e manutenzione ordinaria del sistema varchi è stato posticipato al 28/02/2025 a causa dell'avvio effettivo del servizio il 01/03/2022 anziché il 01/01/2022.
+Punto 3: Controlla se sono stati rispettati i tempi e termini del procedimento
+Risposta: SI
+La determina è stata emessa il 17/01/2025, ma il procedimento è stato avviato con la determinazione dirigenziale n. 3193 del 30/12/2021. Il termine di 24 mesi per il servizio di assistenza e manutenzione ordinaria del sistema varchi è stato posticipato al 28/02/2025 a causa dell'avvio effettivo del servizio il 01/03/2022 anziché il 01/01/2022.
+Punto 4: Controlla se sono stati rispettati i tempi e termini del procedimento
+Risposta: SI
+La determina è stata emessa il 17/01/2025</t>
         </is>
       </c>
     </row>
@@ -889,12 +1139,57 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE: NO, [La determina appare conforme e non presenta criticità evidenti in merito a semplificazione, digitalizzazione, focus specifico, pari opportunità o accesso. Non sono state riscontrate problematiche che richiedano ulteriori approfondimenti o modifiche.]</t>
+          <t xml:space="preserve"> &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 11: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    Punto 11: SI
+    Note finali: Nessun problema rilevato.
+    &lt;&lt;/SYS&gt;]
+&lt;/s&gt; 
+    &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 11: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    Punto 11: SI
+    Note finali: Nessun problema rilevato.
+    &lt;&lt;/SYS&gt;]
+&lt;/s&gt; 
+    &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 11: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    Punto 11: SI
+    Note finali: Nessun problema rilevato.
+    &lt;&lt;/SYS&gt;]
+&lt;/s&gt; 
+    &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 11: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    Punto 11: SI
+    Note finali: Nessun problema rilevato.
+    &lt;&lt;/SYS&gt;]
+&lt;/s&gt; 
+    &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 11: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    Punto 11: SI
+    Note finali: Nessun problema rilevato.
+    &lt;&lt;/SYS&gt;]
+&lt;/s&gt; 
+    &lt;s&gt;[INST] &lt;&lt;SYS&gt;&gt;
+    Risposta:
+    Punto 11: [SI/NO/NON PERTINENTE], [spiegazione sintetica se necessaria]
+    Note finali: [eventuali osservazioni generali]
+    Punto 11: SI
+    Note finali: Nessun problema</t>
         </is>
       </c>
     </row>
